--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440581.67</v>
+        <v>1467310.78</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22029.08</v>
+        <v>44463.96</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50109.29</v>
+        <v>50259.8</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19326.13</v>
+        <v>19062.9</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28180.59</v>
+        <v>23098.37</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69022.5</v>
+        <v>68810.46000000001</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4470.52</v>
+        <v>4433.32</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40604.13</v>
+        <v>40677.75</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33361.7</v>
+        <v>33291.41</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6797.56</v>
+        <v>5784.35</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22968.43</v>
+        <v>23146.18</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29030.04</v>
+        <v>29041.27</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30806.87</v>
+        <v>30940.06</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18203.35</v>
+        <v>18182.68</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7638.48</v>
+        <v>7529.25</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2688.25</v>
+        <v>2691.82</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6508.76</v>
+        <v>6541.8</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8919.75</v>
+        <v>8912.690000000001</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2390.31</v>
+        <v>2404.38</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56005.04</v>
+        <v>55940.36</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2693.3</v>
+        <v>2699.27</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,137 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>856.67</v>
+        <v>854.45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>22429.44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1500.68</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2001.02</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>164826.27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5987.65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5613.7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>372693.09</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8626.49</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>37976.37</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>55891.43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>396.36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>854.45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>354211.26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -723,7 +723,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B30" t="n">

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,38 +436,52 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1467310.78</v>
+        <v>50232.48</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50366.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44463.96</v>
+        <v>2414.91</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2379.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50259.8</v>
+        <v>6521.36</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6511.13</v>
       </c>
     </row>
     <row r="5">
@@ -477,277 +491,361 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19062.9</v>
+        <v>19191.06</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18998.69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23098.37</v>
+        <v>8789.83</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8085.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68810.46000000001</v>
+        <v>18829.67</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18483.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4433.32</v>
+        <v>69118.50999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>68831.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40677.75</v>
+        <v>4482.65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4368.28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33291.41</v>
+        <v>2000.35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1999.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5784.35</v>
+        <v>164987.91</v>
+      </c>
+      <c r="C11" t="n">
+        <v>165125.55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23146.18</v>
+        <v>22420.32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>22403.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29041.27</v>
+        <v>37839.77</v>
+      </c>
+      <c r="C13" t="n">
+        <v>37898.77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30940.06</v>
+        <v>1501.67</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1499.41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18182.68</v>
+        <v>30445.47</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30554.19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7529.25</v>
+        <v>30812.29</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30759.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2691.82</v>
+        <v>40774.22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>40873.12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6541.8</v>
+        <v>33376.31</v>
+      </c>
+      <c r="C18" t="n">
+        <v>33306.76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8912.690000000001</v>
+        <v>55947.91</v>
+      </c>
+      <c r="C19" t="n">
+        <v>55950.03</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2404.38</v>
+        <v>2694.63</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2695.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55940.36</v>
+        <v>399.42</v>
+      </c>
+      <c r="C21" t="n">
+        <v>403.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2699.27</v>
+        <v>4680.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3706.03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>854.45</v>
+        <v>22995.56</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23177.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22429.44</v>
+        <v>853.27</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1258.44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1500.68</v>
+        <v>853.27</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1258.44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2001.02</v>
+        <v>6020.08</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5990.75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>164826.27</v>
+        <v>5629.82</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5649.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5987.65</v>
+        <v>18260.31</v>
+      </c>
+      <c r="C28" t="n">
+        <v>18238.66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5613.7</v>
+        <v>7587.14</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7691.68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>372693.09</v>
+        <v>8909.01</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8934.290000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8626.49</v>
+        <v>353857.4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>353937.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>37976.37</v>
+        <v>372434</v>
+      </c>
+      <c r="C32" t="n">
+        <v>387050.49</v>
       </c>
     </row>
     <row r="33">
@@ -757,37 +855,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55891.43</v>
+        <v>75680.35000000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>75667.28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>396.36</v>
+        <v>2714.16</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2696.38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>854.45</v>
+        <v>44947.14</v>
+      </c>
+      <c r="C35" t="n">
+        <v>45356.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>354211.26</v>
+        <v>1483255.61</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1496750.51</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,456 +443,341 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50232.48</v>
-      </c>
-      <c r="C2" t="n">
-        <v>50366.13</v>
+        <v>1495492.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2414.91</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2379.69</v>
+        <v>46734.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6521.36</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6511.13</v>
+        <v>50366.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19191.06</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18998.69</v>
+        <v>2379.69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8789.83</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8085.95</v>
+        <v>6511.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18829.67</v>
-      </c>
-      <c r="C7" t="n">
-        <v>18483.8</v>
+        <v>18998.69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69118.50999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>68831.62</v>
+        <v>8085.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4482.65</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4368.28</v>
+        <v>18483.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2000.35</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1999.3</v>
+        <v>68831.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164987.91</v>
-      </c>
-      <c r="C11" t="n">
-        <v>165125.55</v>
+        <v>4368.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22420.32</v>
-      </c>
-      <c r="C12" t="n">
         <v>22403.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37839.77</v>
-      </c>
-      <c r="C13" t="n">
-        <v>37898.77</v>
+        <v>1499.41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1501.67</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1499.41</v>
+        <v>1999.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30445.47</v>
-      </c>
-      <c r="C15" t="n">
-        <v>30554.19</v>
+        <v>165125.55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30812.29</v>
-      </c>
-      <c r="C16" t="n">
-        <v>30759.08</v>
+        <v>37898.77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40774.22</v>
-      </c>
-      <c r="C17" t="n">
-        <v>40873.12</v>
+        <v>30554.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33376.31</v>
-      </c>
-      <c r="C18" t="n">
-        <v>33306.76</v>
+        <v>30759.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55947.91</v>
-      </c>
-      <c r="C19" t="n">
-        <v>55950.03</v>
+        <v>40873.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2694.63</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2695.08</v>
+        <v>33306.76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>399.42</v>
-      </c>
-      <c r="C21" t="n">
-        <v>403.28</v>
+        <v>55950.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4680.5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3706.03</v>
+        <v>2695.08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22995.56</v>
-      </c>
-      <c r="C23" t="n">
-        <v>23177.7</v>
+        <v>403.28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>853.27</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1258.44</v>
+        <v>3706.03</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>853.27</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1258.44</v>
+        <v>23177.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6020.08</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5990.75</v>
+        <v>1258.44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5629.82</v>
-      </c>
-      <c r="C27" t="n">
-        <v>5649.08</v>
+        <v>5990.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18260.31</v>
-      </c>
-      <c r="C28" t="n">
-        <v>18238.66</v>
+        <v>5649.08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7587.14</v>
-      </c>
-      <c r="C29" t="n">
-        <v>7691.68</v>
+        <v>18238.66</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8909.01</v>
-      </c>
-      <c r="C30" t="n">
-        <v>8934.290000000001</v>
+        <v>7691.68</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>353857.4</v>
-      </c>
-      <c r="C31" t="n">
-        <v>353937.75</v>
+        <v>8934.290000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>372434</v>
-      </c>
-      <c r="C32" t="n">
-        <v>387050.49</v>
+        <v>353937.75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>75680.35000000001</v>
-      </c>
-      <c r="C33" t="n">
-        <v>75667.28</v>
+        <v>387050.49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2714.16</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2696.38</v>
+        <v>75667.28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44947.14</v>
-      </c>
-      <c r="C35" t="n">
-        <v>45356.08</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1483255.61</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1496750.51</v>
+        <v>2696.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,345 +439,430 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1495492.07</v>
+        <v>50366.13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50309.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46734.13</v>
+        <v>2379.69</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2383.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50366.13</v>
+        <v>6511.13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6537.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2379.69</v>
+        <v>18998.69</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19092.07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6511.13</v>
+        <v>8085.95</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9069.309999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18998.69</v>
+        <v>18483.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18544.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8085.95</v>
-      </c>
+        <v>68831.62</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18483.8</v>
-      </c>
+        <v>4368.28</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68831.62</v>
-      </c>
+        <v>22403.68</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4368.28</v>
-      </c>
+        <v>1499.41</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22403.68</v>
-      </c>
+        <v>1999.3</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1499.41</v>
-      </c>
+        <v>165125.55</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1999.3</v>
-      </c>
+        <v>37898.77</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165125.55</v>
-      </c>
+        <v>30554.19</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37898.77</v>
-      </c>
+        <v>30759.08</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30554.19</v>
-      </c>
+        <v>40873.12</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30759.08</v>
+        <v>33306.76</v>
+      </c>
+      <c r="C18" t="n">
+        <v>33383.37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40873.12</v>
+        <v>55950.03</v>
+      </c>
+      <c r="C19" t="n">
+        <v>56011.95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33306.76</v>
+        <v>2695.08</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2677.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55950.03</v>
+        <v>403.28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>404.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2695.08</v>
+        <v>3706.03</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3689.54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>403.28</v>
+        <v>23177.7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23156.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3706.03</v>
+        <v>1258.44</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1258.12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23177.7</v>
+        <v>5990.75</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6017.62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1258.44</v>
+        <v>5649.08</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5627.43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5990.75</v>
-      </c>
+        <v>18238.66</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5649.08</v>
+        <v>7691.68</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7602.22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18238.66</v>
+        <v>8934.290000000001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8916.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7691.68</v>
+        <v>353937.75</v>
+      </c>
+      <c r="C30" t="n">
+        <v>353831.64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8934.290000000001</v>
+        <v>387050.49</v>
+      </c>
+      <c r="C31" t="n">
+        <v>387147.47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>353937.75</v>
+        <v>75667.28</v>
+      </c>
+      <c r="C32" t="n">
+        <v>75569.42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>387050.49</v>
+        <v>2696.38</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2705.63</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75667.28</v>
+        <v>46734.13</v>
+      </c>
+      <c r="C34" t="n">
+        <v>51139.79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2696.38</v>
+        <v>1495492.07</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1073935.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>50309.35</v>
       </c>
+      <c r="D2" t="n">
+        <v>50338.94</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>2383.3</v>
       </c>
+      <c r="D3" t="n">
+        <v>2409.47</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>6537.3</v>
       </c>
+      <c r="D4" t="n">
+        <v>6539.81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>19092.07</v>
       </c>
+      <c r="D5" t="n">
+        <v>18943.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>9069.309999999999</v>
       </c>
+      <c r="D6" t="n">
+        <v>8699.67</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>18544.26</v>
       </c>
+      <c r="D7" t="n">
+        <v>18700.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -533,6 +556,9 @@
         <v>68831.62</v>
       </c>
       <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>75604.78</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -544,6 +570,7 @@
         <v>4368.28</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -555,6 +582,9 @@
         <v>22403.68</v>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>22372.24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -566,6 +596,9 @@
         <v>1499.41</v>
       </c>
       <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1500.77</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -577,6 +610,9 @@
         <v>1999.3</v>
       </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>1997.59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -588,6 +624,9 @@
         <v>165125.55</v>
       </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>162583.19</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -599,6 +638,9 @@
         <v>37898.77</v>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>37991.26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -610,6 +652,9 @@
         <v>30554.19</v>
       </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>33629.15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -621,6 +666,9 @@
         <v>30759.08</v>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>34718.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -632,6 +680,9 @@
         <v>40873.12</v>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>41857.73</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -645,6 +696,9 @@
       <c r="C18" t="n">
         <v>33383.37</v>
       </c>
+      <c r="D18" t="n">
+        <v>33368.39</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -658,6 +712,9 @@
       <c r="C19" t="n">
         <v>56011.95</v>
       </c>
+      <c r="D19" t="n">
+        <v>30976.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -671,6 +728,9 @@
       <c r="C20" t="n">
         <v>2677.9</v>
       </c>
+      <c r="D20" t="n">
+        <v>2698.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -684,6 +744,9 @@
       <c r="C21" t="n">
         <v>404.84</v>
       </c>
+      <c r="D21" t="n">
+        <v>398.09</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -697,6 +760,9 @@
       <c r="C22" t="n">
         <v>3689.54</v>
       </c>
+      <c r="D22" t="n">
+        <v>3662.78</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -710,6 +776,9 @@
       <c r="C23" t="n">
         <v>23156.3</v>
       </c>
+      <c r="D23" t="n">
+        <v>21101.67</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -723,6 +792,9 @@
       <c r="C24" t="n">
         <v>1258.12</v>
       </c>
+      <c r="D24" t="n">
+        <v>1446.57</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -736,6 +808,9 @@
       <c r="C25" t="n">
         <v>6017.62</v>
       </c>
+      <c r="D25" t="n">
+        <v>5980.37</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -749,6 +824,9 @@
       <c r="C26" t="n">
         <v>5627.43</v>
       </c>
+      <c r="D26" t="n">
+        <v>5654.42</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -760,6 +838,9 @@
         <v>18238.66</v>
       </c>
       <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>18268.14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -773,6 +854,9 @@
       <c r="C28" t="n">
         <v>7602.22</v>
       </c>
+      <c r="D28" t="n">
+        <v>7578.49</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -786,6 +870,9 @@
       <c r="C29" t="n">
         <v>8916.5</v>
       </c>
+      <c r="D29" t="n">
+        <v>8881.700000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -799,6 +886,9 @@
       <c r="C30" t="n">
         <v>353831.64</v>
       </c>
+      <c r="D30" t="n">
+        <v>353973.15</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -812,6 +902,9 @@
       <c r="C31" t="n">
         <v>387147.47</v>
       </c>
+      <c r="D31" t="n">
+        <v>386826.43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -825,6 +918,9 @@
       <c r="C32" t="n">
         <v>75569.42</v>
       </c>
+      <c r="D32" t="n">
+        <v>75861.58</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -838,6 +934,9 @@
       <c r="C33" t="n">
         <v>2705.63</v>
       </c>
+      <c r="D33" t="n">
+        <v>2721.55</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -851,6 +950,9 @@
       <c r="C34" t="n">
         <v>51139.79</v>
       </c>
+      <c r="D34" t="n">
+        <v>47654.34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -863,6 +965,9 @@
       </c>
       <c r="C35" t="n">
         <v>1073935.54</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1477284.63</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>50338.94</v>
       </c>
+      <c r="E2" t="n">
+        <v>50067.13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>2409.47</v>
       </c>
+      <c r="E3" t="n">
+        <v>2427.68</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>6539.81</v>
       </c>
+      <c r="E4" t="n">
+        <v>6555.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>18943.2</v>
       </c>
+      <c r="E5" t="n">
+        <v>19262.34</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>8699.67</v>
       </c>
+      <c r="E6" t="n">
+        <v>9033.92</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -544,6 +564,9 @@
       </c>
       <c r="D7" t="n">
         <v>18700.05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17202.88</v>
       </c>
     </row>
     <row r="8">
@@ -559,6 +582,9 @@
       <c r="D8" t="n">
         <v>75604.78</v>
       </c>
+      <c r="E8" t="n">
+        <v>75863.06</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -571,6 +597,7 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -585,6 +612,9 @@
       <c r="D10" t="n">
         <v>22372.24</v>
       </c>
+      <c r="E10" t="n">
+        <v>22386.99</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -599,6 +629,9 @@
       <c r="D11" t="n">
         <v>1500.77</v>
       </c>
+      <c r="E11" t="n">
+        <v>1498.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -613,6 +646,9 @@
       <c r="D12" t="n">
         <v>1997.59</v>
       </c>
+      <c r="E12" t="n">
+        <v>2001.96</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -627,6 +663,9 @@
       <c r="D13" t="n">
         <v>162583.19</v>
       </c>
+      <c r="E13" t="n">
+        <v>160823.89</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -641,6 +680,9 @@
       <c r="D14" t="n">
         <v>37991.26</v>
       </c>
+      <c r="E14" t="n">
+        <v>37816.13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -655,6 +697,9 @@
       <c r="D15" t="n">
         <v>33629.15</v>
       </c>
+      <c r="E15" t="n">
+        <v>36523.18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -669,6 +714,9 @@
       <c r="D16" t="n">
         <v>34718.95</v>
       </c>
+      <c r="E16" t="n">
+        <v>35403.14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -683,6 +731,9 @@
       <c r="D17" t="n">
         <v>41857.73</v>
       </c>
+      <c r="E17" t="n">
+        <v>44642.58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -699,6 +750,9 @@
       <c r="D18" t="n">
         <v>33368.39</v>
       </c>
+      <c r="E18" t="n">
+        <v>33348.79</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -715,6 +769,9 @@
       <c r="D19" t="n">
         <v>30976.4</v>
       </c>
+      <c r="E19" t="n">
+        <v>30942.81</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -731,6 +788,9 @@
       <c r="D20" t="n">
         <v>2698.1</v>
       </c>
+      <c r="E20" t="n">
+        <v>2687.91</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -747,6 +807,9 @@
       <c r="D21" t="n">
         <v>398.09</v>
       </c>
+      <c r="E21" t="n">
+        <v>402.27</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -763,6 +826,9 @@
       <c r="D22" t="n">
         <v>3662.78</v>
       </c>
+      <c r="E22" t="n">
+        <v>3721.6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -779,6 +845,9 @@
       <c r="D23" t="n">
         <v>21101.67</v>
       </c>
+      <c r="E23" t="n">
+        <v>21048.02</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -795,6 +864,9 @@
       <c r="D24" t="n">
         <v>1446.57</v>
       </c>
+      <c r="E24" t="n">
+        <v>1441.21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -811,6 +883,9 @@
       <c r="D25" t="n">
         <v>5980.37</v>
       </c>
+      <c r="E25" t="n">
+        <v>5980.08</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -826,6 +901,9 @@
       </c>
       <c r="D26" t="n">
         <v>5654.42</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5622.74</v>
       </c>
     </row>
     <row r="27">
@@ -841,6 +919,9 @@
       <c r="D27" t="n">
         <v>18268.14</v>
       </c>
+      <c r="E27" t="n">
+        <v>18216.2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -857,6 +938,9 @@
       <c r="D28" t="n">
         <v>7578.49</v>
       </c>
+      <c r="E28" t="n">
+        <v>7504.64</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -873,6 +957,9 @@
       <c r="D29" t="n">
         <v>8881.700000000001</v>
       </c>
+      <c r="E29" t="n">
+        <v>8932.91</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -889,6 +976,7 @@
       <c r="D30" t="n">
         <v>353973.15</v>
       </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -905,6 +993,9 @@
       <c r="D31" t="n">
         <v>386826.43</v>
       </c>
+      <c r="E31" t="n">
+        <v>386942.99</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -921,6 +1012,9 @@
       <c r="D32" t="n">
         <v>75861.58</v>
       </c>
+      <c r="E32" t="n">
+        <v>75820.89999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -937,6 +1031,9 @@
       <c r="D33" t="n">
         <v>2721.55</v>
       </c>
+      <c r="E33" t="n">
+        <v>2705.11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -953,6 +1050,9 @@
       <c r="D34" t="n">
         <v>47654.34</v>
       </c>
+      <c r="E34" t="n">
+        <v>37560.88</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -968,6 +1068,9 @@
       </c>
       <c r="D35" t="n">
         <v>1477284.63</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1126826.49</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>50067.13</v>
       </c>
+      <c r="F2" t="n">
+        <v>50388.99</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>2427.68</v>
       </c>
+      <c r="F3" t="n">
+        <v>2394.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>6555.13</v>
       </c>
+      <c r="F4" t="n">
+        <v>6503.67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>19262.34</v>
       </c>
+      <c r="F5" t="n">
+        <v>18968.65</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>9033.92</v>
       </c>
+      <c r="F6" t="n">
+        <v>8657.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -567,6 +587,9 @@
       </c>
       <c r="E7" t="n">
         <v>17202.88</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17059.13</v>
       </c>
     </row>
     <row r="8">
@@ -585,6 +608,9 @@
       <c r="E8" t="n">
         <v>75863.06</v>
       </c>
+      <c r="F8" t="n">
+        <v>75843.63</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -598,6 +624,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -615,6 +642,9 @@
       <c r="E10" t="n">
         <v>22386.99</v>
       </c>
+      <c r="F10" t="n">
+        <v>22380.29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -632,6 +662,9 @@
       <c r="E11" t="n">
         <v>1498.3</v>
       </c>
+      <c r="F11" t="n">
+        <v>1501.91</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -649,6 +682,9 @@
       <c r="E12" t="n">
         <v>2001.96</v>
       </c>
+      <c r="F12" t="n">
+        <v>2002.54</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -666,6 +702,9 @@
       <c r="E13" t="n">
         <v>160823.89</v>
       </c>
+      <c r="F13" t="n">
+        <v>160754.6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -683,6 +722,9 @@
       <c r="E14" t="n">
         <v>37816.13</v>
       </c>
+      <c r="F14" t="n">
+        <v>38053.34</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -700,6 +742,9 @@
       <c r="E15" t="n">
         <v>36523.18</v>
       </c>
+      <c r="F15" t="n">
+        <v>38285.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -717,6 +762,9 @@
       <c r="E16" t="n">
         <v>35403.14</v>
       </c>
+      <c r="F16" t="n">
+        <v>35401.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -734,6 +782,9 @@
       <c r="E17" t="n">
         <v>44642.58</v>
       </c>
+      <c r="F17" t="n">
+        <v>44589.26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -753,6 +804,9 @@
       <c r="E18" t="n">
         <v>33348.79</v>
       </c>
+      <c r="F18" t="n">
+        <v>33228.91</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -772,6 +826,9 @@
       <c r="E19" t="n">
         <v>30942.81</v>
       </c>
+      <c r="F19" t="n">
+        <v>30993.23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -791,6 +848,9 @@
       <c r="E20" t="n">
         <v>2687.91</v>
       </c>
+      <c r="F20" t="n">
+        <v>2693.21</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -810,6 +870,9 @@
       <c r="E21" t="n">
         <v>402.27</v>
       </c>
+      <c r="F21" t="n">
+        <v>396.69</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -829,6 +892,9 @@
       <c r="E22" t="n">
         <v>3721.6</v>
       </c>
+      <c r="F22" t="n">
+        <v>3694.94</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -848,6 +914,9 @@
       <c r="E23" t="n">
         <v>21048.02</v>
       </c>
+      <c r="F23" t="n">
+        <v>21023.45</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -867,6 +936,9 @@
       <c r="E24" t="n">
         <v>1441.21</v>
       </c>
+      <c r="F24" t="n">
+        <v>1442.34</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -886,6 +958,9 @@
       <c r="E25" t="n">
         <v>5980.08</v>
       </c>
+      <c r="F25" t="n">
+        <v>5229.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -904,6 +979,9 @@
       </c>
       <c r="E26" t="n">
         <v>5622.74</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5651.78</v>
       </c>
     </row>
     <row r="27">
@@ -922,6 +1000,9 @@
       <c r="E27" t="n">
         <v>18216.2</v>
       </c>
+      <c r="F27" t="n">
+        <v>18276.34</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -941,6 +1022,9 @@
       <c r="E28" t="n">
         <v>7504.64</v>
       </c>
+      <c r="F28" t="n">
+        <v>7585.22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -960,6 +1044,9 @@
       <c r="E29" t="n">
         <v>8932.91</v>
       </c>
+      <c r="F29" t="n">
+        <v>8941.709999999999</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -977,6 +1064,7 @@
         <v>353973.15</v>
       </c>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -996,6 +1084,9 @@
       <c r="E31" t="n">
         <v>386942.99</v>
       </c>
+      <c r="F31" t="n">
+        <v>387250.54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1015,6 +1106,9 @@
       <c r="E32" t="n">
         <v>75820.89999999999</v>
       </c>
+      <c r="F32" t="n">
+        <v>75582.03999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1034,6 +1128,9 @@
       <c r="E33" t="n">
         <v>2705.11</v>
       </c>
+      <c r="F33" t="n">
+        <v>2698.84</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1053,6 +1150,9 @@
       <c r="E34" t="n">
         <v>37560.88</v>
       </c>
+      <c r="F34" t="n">
+        <v>37582.44</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1071,6 +1171,9 @@
       </c>
       <c r="E35" t="n">
         <v>1126826.49</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1127473.26</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>50388.99</v>
       </c>
+      <c r="G2" t="n">
+        <v>50210.38</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>2394.25</v>
       </c>
+      <c r="G3" t="n">
+        <v>2391.45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>6503.67</v>
       </c>
+      <c r="G4" t="n">
+        <v>6569.21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>18968.65</v>
       </c>
+      <c r="G5" t="n">
+        <v>19325.79</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>8657.01</v>
       </c>
+      <c r="G6" t="n">
+        <v>8725.639999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -590,6 +610,9 @@
       </c>
       <c r="F7" t="n">
         <v>17059.13</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17204.22</v>
       </c>
     </row>
     <row r="8">
@@ -610,6 +633,9 @@
       </c>
       <c r="F8" t="n">
         <v>75843.63</v>
+      </c>
+      <c r="G8" t="n">
+        <v>75797.59</v>
       </c>
     </row>
     <row r="9">
@@ -625,6 +651,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -645,6 +672,9 @@
       <c r="F10" t="n">
         <v>22380.29</v>
       </c>
+      <c r="G10" t="n">
+        <v>22450.62</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -665,6 +695,9 @@
       <c r="F11" t="n">
         <v>1501.91</v>
       </c>
+      <c r="G11" t="n">
+        <v>1497.66</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -685,6 +718,9 @@
       <c r="F12" t="n">
         <v>2002.54</v>
       </c>
+      <c r="G12" t="n">
+        <v>1998.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -705,6 +741,9 @@
       <c r="F13" t="n">
         <v>160754.6</v>
       </c>
+      <c r="G13" t="n">
+        <v>160719.76</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -725,6 +764,9 @@
       <c r="F14" t="n">
         <v>38053.34</v>
       </c>
+      <c r="G14" t="n">
+        <v>37697.53</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -745,6 +787,9 @@
       <c r="F15" t="n">
         <v>38285.1</v>
       </c>
+      <c r="G15" t="n">
+        <v>38206.74</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -765,6 +810,9 @@
       <c r="F16" t="n">
         <v>35401.95</v>
       </c>
+      <c r="G16" t="n">
+        <v>34535.14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -785,6 +833,9 @@
       <c r="F17" t="n">
         <v>44589.26</v>
       </c>
+      <c r="G17" t="n">
+        <v>44749.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -807,6 +858,9 @@
       <c r="F18" t="n">
         <v>33228.91</v>
       </c>
+      <c r="G18" t="n">
+        <v>33349.74</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -829,6 +883,9 @@
       <c r="F19" t="n">
         <v>30993.23</v>
       </c>
+      <c r="G19" t="n">
+        <v>30943.63</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -851,6 +908,9 @@
       <c r="F20" t="n">
         <v>2693.21</v>
       </c>
+      <c r="G20" t="n">
+        <v>2671.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -873,6 +933,9 @@
       <c r="F21" t="n">
         <v>396.69</v>
       </c>
+      <c r="G21" t="n">
+        <v>395.66</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -895,6 +958,9 @@
       <c r="F22" t="n">
         <v>3694.94</v>
       </c>
+      <c r="G22" t="n">
+        <v>3651.86</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -917,6 +983,9 @@
       <c r="F23" t="n">
         <v>21023.45</v>
       </c>
+      <c r="G23" t="n">
+        <v>21029.88</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -939,6 +1008,9 @@
       <c r="F24" t="n">
         <v>1442.34</v>
       </c>
+      <c r="G24" t="n">
+        <v>1445.88</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -961,6 +1033,9 @@
       <c r="F25" t="n">
         <v>5229.7</v>
       </c>
+      <c r="G25" t="n">
+        <v>5184.27</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -982,6 +1057,9 @@
       </c>
       <c r="F26" t="n">
         <v>5651.78</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5611.11</v>
       </c>
     </row>
     <row r="27">
@@ -1003,6 +1081,9 @@
       <c r="F27" t="n">
         <v>18276.34</v>
       </c>
+      <c r="G27" t="n">
+        <v>18192.71</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1025,6 +1106,9 @@
       <c r="F28" t="n">
         <v>7585.22</v>
       </c>
+      <c r="G28" t="n">
+        <v>7512.4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1047,6 +1131,9 @@
       <c r="F29" t="n">
         <v>8941.709999999999</v>
       </c>
+      <c r="G29" t="n">
+        <v>8932.34</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1065,6 +1152,7 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1087,6 +1175,9 @@
       <c r="F31" t="n">
         <v>387250.54</v>
       </c>
+      <c r="G31" t="n">
+        <v>386781.16</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1109,6 +1200,9 @@
       <c r="F32" t="n">
         <v>75582.03999999999</v>
       </c>
+      <c r="G32" t="n">
+        <v>75574.28999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1131,6 +1225,9 @@
       <c r="F33" t="n">
         <v>2698.84</v>
       </c>
+      <c r="G33" t="n">
+        <v>2736.93</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1153,6 +1250,9 @@
       <c r="F34" t="n">
         <v>37582.44</v>
       </c>
+      <c r="G34" t="n">
+        <v>37536.45</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1174,6 +1274,9 @@
       </c>
       <c r="F35" t="n">
         <v>1127473.26</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1126093.49</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>50210.38</v>
       </c>
+      <c r="H2" t="n">
+        <v>50301.98</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>2391.45</v>
       </c>
+      <c r="H3" t="n">
+        <v>2400.94</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>6569.21</v>
       </c>
+      <c r="H4" t="n">
+        <v>6563.06</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>19325.79</v>
       </c>
+      <c r="H5" t="n">
+        <v>18934.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>8725.639999999999</v>
       </c>
+      <c r="H6" t="n">
+        <v>8790.110000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -613,6 +633,9 @@
       </c>
       <c r="G7" t="n">
         <v>17204.22</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17225.21</v>
       </c>
     </row>
     <row r="8">
@@ -636,6 +659,9 @@
       </c>
       <c r="G8" t="n">
         <v>75797.59</v>
+      </c>
+      <c r="H8" t="n">
+        <v>75383.28999999999</v>
       </c>
     </row>
     <row r="9">
@@ -652,6 +678,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -675,6 +702,9 @@
       <c r="G10" t="n">
         <v>22450.62</v>
       </c>
+      <c r="H10" t="n">
+        <v>22360.47</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -698,6 +728,9 @@
       <c r="G11" t="n">
         <v>1497.66</v>
       </c>
+      <c r="H11" t="n">
+        <v>1497.98</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -721,6 +754,9 @@
       <c r="G12" t="n">
         <v>1998.7</v>
       </c>
+      <c r="H12" t="n">
+        <v>2001.01</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -744,6 +780,9 @@
       <c r="G13" t="n">
         <v>160719.76</v>
       </c>
+      <c r="H13" t="n">
+        <v>155757.97</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -767,6 +806,9 @@
       <c r="G14" t="n">
         <v>37697.53</v>
       </c>
+      <c r="H14" t="n">
+        <v>38063.69</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -790,6 +832,9 @@
       <c r="G15" t="n">
         <v>38206.74</v>
       </c>
+      <c r="H15" t="n">
+        <v>38256.88</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -813,6 +858,9 @@
       <c r="G16" t="n">
         <v>34535.14</v>
       </c>
+      <c r="H16" t="n">
+        <v>34540.86</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -836,6 +884,9 @@
       <c r="G17" t="n">
         <v>44749.5</v>
       </c>
+      <c r="H17" t="n">
+        <v>45013.35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -861,6 +912,9 @@
       <c r="G18" t="n">
         <v>33349.74</v>
       </c>
+      <c r="H18" t="n">
+        <v>33356.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -886,6 +940,9 @@
       <c r="G19" t="n">
         <v>30943.63</v>
       </c>
+      <c r="H19" t="n">
+        <v>30921.6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -911,6 +968,9 @@
       <c r="G20" t="n">
         <v>2671.7</v>
       </c>
+      <c r="H20" t="n">
+        <v>2673.92</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -936,6 +996,9 @@
       <c r="G21" t="n">
         <v>395.66</v>
       </c>
+      <c r="H21" t="n">
+        <v>403.27</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -961,6 +1024,9 @@
       <c r="G22" t="n">
         <v>3651.86</v>
       </c>
+      <c r="H22" t="n">
+        <v>3713.4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -986,6 +1052,9 @@
       <c r="G23" t="n">
         <v>21029.88</v>
       </c>
+      <c r="H23" t="n">
+        <v>21151.47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1011,6 +1080,9 @@
       <c r="G24" t="n">
         <v>1445.88</v>
       </c>
+      <c r="H24" t="n">
+        <v>1446.63</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1036,6 +1108,9 @@
       <c r="G25" t="n">
         <v>5184.27</v>
       </c>
+      <c r="H25" t="n">
+        <v>5188.29</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1060,6 +1135,9 @@
       </c>
       <c r="G26" t="n">
         <v>5611.11</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5613.41</v>
       </c>
     </row>
     <row r="27">
@@ -1084,6 +1162,9 @@
       <c r="G27" t="n">
         <v>18192.71</v>
       </c>
+      <c r="H27" t="n">
+        <v>18166.97</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1109,6 +1190,9 @@
       <c r="G28" t="n">
         <v>7512.4</v>
       </c>
+      <c r="H28" t="n">
+        <v>7594.25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1133,6 +1217,9 @@
       </c>
       <c r="G29" t="n">
         <v>8932.34</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8944.799999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1153,6 +1240,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1178,6 +1266,9 @@
       <c r="G31" t="n">
         <v>386781.16</v>
       </c>
+      <c r="H31" t="n">
+        <v>386893.05</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1203,6 +1294,9 @@
       <c r="G32" t="n">
         <v>75574.28999999999</v>
       </c>
+      <c r="H32" t="n">
+        <v>75617</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1228,6 +1322,9 @@
       <c r="G33" t="n">
         <v>2736.93</v>
       </c>
+      <c r="H33" t="n">
+        <v>2707.04</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1253,6 +1350,9 @@
       <c r="G34" t="n">
         <v>37536.45</v>
       </c>
+      <c r="H34" t="n">
+        <v>37382.78</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1277,6 +1377,9 @@
       </c>
       <c r="G35" t="n">
         <v>1126093.49</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1121483.35</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>50301.98</v>
       </c>
+      <c r="I2" t="n">
+        <v>50256.69</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>2400.94</v>
       </c>
+      <c r="I3" t="n">
+        <v>2370.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>6563.06</v>
       </c>
+      <c r="I4" t="n">
+        <v>6554.49</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>18934.95</v>
       </c>
+      <c r="I5" t="n">
+        <v>19276.63</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>8790.110000000001</v>
       </c>
+      <c r="I6" t="n">
+        <v>8017.74</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -636,6 +656,9 @@
       </c>
       <c r="H7" t="n">
         <v>17225.21</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17328.78</v>
       </c>
     </row>
     <row r="8">
@@ -662,6 +685,9 @@
       </c>
       <c r="H8" t="n">
         <v>75383.28999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>75723.86</v>
       </c>
     </row>
     <row r="9">
@@ -679,6 +705,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -705,6 +732,9 @@
       <c r="H10" t="n">
         <v>22360.47</v>
       </c>
+      <c r="I10" t="n">
+        <v>22432.71</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -731,6 +761,9 @@
       <c r="H11" t="n">
         <v>1497.98</v>
       </c>
+      <c r="I11" t="n">
+        <v>1498.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -757,6 +790,9 @@
       <c r="H12" t="n">
         <v>2001.01</v>
       </c>
+      <c r="I12" t="n">
+        <v>2000.67</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -783,6 +819,9 @@
       <c r="H13" t="n">
         <v>155757.97</v>
       </c>
+      <c r="I13" t="n">
+        <v>156120.24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -809,6 +848,9 @@
       <c r="H14" t="n">
         <v>38063.69</v>
       </c>
+      <c r="I14" t="n">
+        <v>37748.19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -835,6 +877,9 @@
       <c r="H15" t="n">
         <v>38256.88</v>
       </c>
+      <c r="I15" t="n">
+        <v>38498.33</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -861,6 +906,9 @@
       <c r="H16" t="n">
         <v>34540.86</v>
       </c>
+      <c r="I16" t="n">
+        <v>34438.21</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -887,6 +935,9 @@
       <c r="H17" t="n">
         <v>45013.35</v>
       </c>
+      <c r="I17" t="n">
+        <v>44836.54</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -915,6 +966,9 @@
       <c r="H18" t="n">
         <v>33356.5</v>
       </c>
+      <c r="I18" t="n">
+        <v>33091.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -943,6 +997,9 @@
       <c r="H19" t="n">
         <v>30921.6</v>
       </c>
+      <c r="I19" t="n">
+        <v>30929.58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -971,6 +1028,9 @@
       <c r="H20" t="n">
         <v>2673.92</v>
       </c>
+      <c r="I20" t="n">
+        <v>2702.78</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -999,6 +1059,9 @@
       <c r="H21" t="n">
         <v>403.27</v>
       </c>
+      <c r="I21" t="n">
+        <v>404.05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1027,6 +1090,9 @@
       <c r="H22" t="n">
         <v>3713.4</v>
       </c>
+      <c r="I22" t="n">
+        <v>3662.64</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1055,6 +1121,9 @@
       <c r="H23" t="n">
         <v>21151.47</v>
       </c>
+      <c r="I23" t="n">
+        <v>20999.31</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1083,6 +1152,9 @@
       <c r="H24" t="n">
         <v>1446.63</v>
       </c>
+      <c r="I24" t="n">
+        <v>1447.01</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1111,6 +1183,9 @@
       <c r="H25" t="n">
         <v>5188.29</v>
       </c>
+      <c r="I25" t="n">
+        <v>5179.12</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1138,6 +1213,9 @@
       </c>
       <c r="H26" t="n">
         <v>5613.41</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5639.96</v>
       </c>
     </row>
     <row r="27">
@@ -1165,6 +1243,9 @@
       <c r="H27" t="n">
         <v>18166.97</v>
       </c>
+      <c r="I27" t="n">
+        <v>18162.51</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1193,6 +1274,9 @@
       <c r="H28" t="n">
         <v>7594.25</v>
       </c>
+      <c r="I28" t="n">
+        <v>7591.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1220,6 +1304,9 @@
       </c>
       <c r="H29" t="n">
         <v>8944.799999999999</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8918.43</v>
       </c>
     </row>
     <row r="30">
@@ -1241,6 +1328,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1269,6 +1357,9 @@
       <c r="H31" t="n">
         <v>386893.05</v>
       </c>
+      <c r="I31" t="n">
+        <v>386986.83</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1297,6 +1388,9 @@
       <c r="H32" t="n">
         <v>75617</v>
       </c>
+      <c r="I32" t="n">
+        <v>75896.03999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1325,6 +1419,9 @@
       <c r="H33" t="n">
         <v>2707.04</v>
       </c>
+      <c r="I33" t="n">
+        <v>2732.38</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1353,6 +1450,9 @@
       <c r="H34" t="n">
         <v>37382.78</v>
       </c>
+      <c r="I34" t="n">
+        <v>37381.51</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1380,6 +1480,9 @@
       </c>
       <c r="H35" t="n">
         <v>1121483.35</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1121445.37</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>50256.69</v>
       </c>
+      <c r="J2" t="n">
+        <v>50036.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>2370.3</v>
       </c>
+      <c r="J3" t="n">
+        <v>2389.68</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>6554.49</v>
       </c>
+      <c r="J4" t="n">
+        <v>6534.86</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>19276.63</v>
       </c>
+      <c r="J5" t="n">
+        <v>19315.39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>8017.74</v>
       </c>
+      <c r="J6" t="n">
+        <v>8654.469999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -659,6 +679,9 @@
       </c>
       <c r="I7" t="n">
         <v>17328.78</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17218.55</v>
       </c>
     </row>
     <row r="8">
@@ -688,6 +711,9 @@
       </c>
       <c r="I8" t="n">
         <v>75723.86</v>
+      </c>
+      <c r="J8" t="n">
+        <v>75385.23</v>
       </c>
     </row>
     <row r="9">
@@ -706,6 +732,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -735,6 +762,9 @@
       <c r="I10" t="n">
         <v>22432.71</v>
       </c>
+      <c r="J10" t="n">
+        <v>22356.65</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -764,6 +794,9 @@
       <c r="I11" t="n">
         <v>1498.25</v>
       </c>
+      <c r="J11" t="n">
+        <v>1499.57</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -793,6 +826,9 @@
       <c r="I12" t="n">
         <v>2000.67</v>
       </c>
+      <c r="J12" t="n">
+        <v>2001.64</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -822,6 +858,9 @@
       <c r="I13" t="n">
         <v>156120.24</v>
       </c>
+      <c r="J13" t="n">
+        <v>155674.26</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -851,6 +890,9 @@
       <c r="I14" t="n">
         <v>37748.19</v>
       </c>
+      <c r="J14" t="n">
+        <v>37878.86</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -880,6 +922,9 @@
       <c r="I15" t="n">
         <v>38498.33</v>
       </c>
+      <c r="J15" t="n">
+        <v>38495.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -909,6 +954,9 @@
       <c r="I16" t="n">
         <v>34438.21</v>
       </c>
+      <c r="J16" t="n">
+        <v>34361.84</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -938,6 +986,9 @@
       <c r="I17" t="n">
         <v>44836.54</v>
       </c>
+      <c r="J17" t="n">
+        <v>44745.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -969,6 +1020,9 @@
       <c r="I18" t="n">
         <v>33091.15</v>
       </c>
+      <c r="J18" t="n">
+        <v>33379.58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1000,6 +1054,9 @@
       <c r="I19" t="n">
         <v>30929.58</v>
       </c>
+      <c r="J19" t="n">
+        <v>30980.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1031,6 +1088,9 @@
       <c r="I20" t="n">
         <v>2702.78</v>
       </c>
+      <c r="J20" t="n">
+        <v>2698.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1062,6 +1122,9 @@
       <c r="I21" t="n">
         <v>404.05</v>
       </c>
+      <c r="J21" t="n">
+        <v>404.42</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1093,6 +1156,9 @@
       <c r="I22" t="n">
         <v>3662.64</v>
       </c>
+      <c r="J22" t="n">
+        <v>2689.35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1124,6 +1190,9 @@
       <c r="I23" t="n">
         <v>20999.31</v>
       </c>
+      <c r="J23" t="n">
+        <v>21143.27</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1155,6 +1224,9 @@
       <c r="I24" t="n">
         <v>1447.01</v>
       </c>
+      <c r="J24" t="n">
+        <v>1441.91</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1186,6 +1258,9 @@
       <c r="I25" t="n">
         <v>5179.12</v>
       </c>
+      <c r="J25" t="n">
+        <v>5182.71</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1216,6 +1291,9 @@
       </c>
       <c r="I26" t="n">
         <v>5639.96</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5626.4</v>
       </c>
     </row>
     <row r="27">
@@ -1246,6 +1324,9 @@
       <c r="I27" t="n">
         <v>18162.51</v>
       </c>
+      <c r="J27" t="n">
+        <v>18242.59</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1277,6 +1358,9 @@
       <c r="I28" t="n">
         <v>7591.95</v>
       </c>
+      <c r="J28" t="n">
+        <v>7594.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1307,6 +1391,9 @@
       </c>
       <c r="I29" t="n">
         <v>8918.43</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8949.84</v>
       </c>
     </row>
     <row r="30">
@@ -1329,6 +1416,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1360,6 +1448,9 @@
       <c r="I31" t="n">
         <v>386986.83</v>
       </c>
+      <c r="J31" t="n">
+        <v>389952.01</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1391,6 +1482,9 @@
       <c r="I32" t="n">
         <v>75896.03999999999</v>
       </c>
+      <c r="J32" t="n">
+        <v>75927.67</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1422,6 +1516,9 @@
       <c r="I33" t="n">
         <v>2732.38</v>
       </c>
+      <c r="J33" t="n">
+        <v>2734.48</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1453,6 +1550,9 @@
       <c r="I34" t="n">
         <v>37381.51</v>
       </c>
+      <c r="J34" t="n">
+        <v>37449.91</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1483,6 +1583,9 @@
       </c>
       <c r="I35" t="n">
         <v>1121445.37</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1123497.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>50036.95</v>
       </c>
+      <c r="K2" t="n">
+        <v>50199.31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>2389.68</v>
       </c>
+      <c r="K3" t="n">
+        <v>2389.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>6534.86</v>
       </c>
+      <c r="K4" t="n">
+        <v>6509.23</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>19315.39</v>
       </c>
+      <c r="K5" t="n">
+        <v>19020.13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>8654.469999999999</v>
       </c>
+      <c r="K6" t="n">
+        <v>8350.809999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -682,6 +702,9 @@
       </c>
       <c r="J7" t="n">
         <v>17218.55</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17309.89</v>
       </c>
     </row>
     <row r="8">
@@ -714,6 +737,9 @@
       </c>
       <c r="J8" t="n">
         <v>75385.23</v>
+      </c>
+      <c r="K8" t="n">
+        <v>75467.72</v>
       </c>
     </row>
     <row r="9">
@@ -733,6 +759,7 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -765,6 +792,9 @@
       <c r="J10" t="n">
         <v>22356.65</v>
       </c>
+      <c r="K10" t="n">
+        <v>22458.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -797,6 +827,9 @@
       <c r="J11" t="n">
         <v>1499.57</v>
       </c>
+      <c r="K11" t="n">
+        <v>1498.75</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -829,6 +862,9 @@
       <c r="J12" t="n">
         <v>2001.64</v>
       </c>
+      <c r="K12" t="n">
+        <v>2001.01</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -861,6 +897,9 @@
       <c r="J13" t="n">
         <v>155674.26</v>
       </c>
+      <c r="K13" t="n">
+        <v>155867.45</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -893,6 +932,9 @@
       <c r="J14" t="n">
         <v>37878.86</v>
       </c>
+      <c r="K14" t="n">
+        <v>37869.47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -925,6 +967,9 @@
       <c r="J15" t="n">
         <v>38495.7</v>
       </c>
+      <c r="K15" t="n">
+        <v>38419.34</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -957,6 +1002,9 @@
       <c r="J16" t="n">
         <v>34361.84</v>
       </c>
+      <c r="K16" t="n">
+        <v>34339.72</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -989,6 +1037,9 @@
       <c r="J17" t="n">
         <v>44745.8</v>
       </c>
+      <c r="K17" t="n">
+        <v>44944.73</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1023,6 +1074,9 @@
       <c r="J18" t="n">
         <v>33379.58</v>
       </c>
+      <c r="K18" t="n">
+        <v>33098.67</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1057,6 +1111,9 @@
       <c r="J19" t="n">
         <v>30980.4</v>
       </c>
+      <c r="K19" t="n">
+        <v>30946.68</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1091,6 +1148,9 @@
       <c r="J20" t="n">
         <v>2698.8</v>
       </c>
+      <c r="K20" t="n">
+        <v>2698.32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1125,6 +1185,9 @@
       <c r="J21" t="n">
         <v>404.42</v>
       </c>
+      <c r="K21" t="n">
+        <v>396.87</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1159,6 +1222,9 @@
       <c r="J22" t="n">
         <v>2689.35</v>
       </c>
+      <c r="K22" t="n">
+        <v>1722.79</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1193,6 +1259,9 @@
       <c r="J23" t="n">
         <v>21143.27</v>
       </c>
+      <c r="K23" t="n">
+        <v>19168.81</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1227,6 +1296,9 @@
       <c r="J24" t="n">
         <v>1441.91</v>
       </c>
+      <c r="K24" t="n">
+        <v>1441.28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1261,6 +1333,9 @@
       <c r="J25" t="n">
         <v>5182.71</v>
       </c>
+      <c r="K25" t="n">
+        <v>5216.69</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1294,6 +1369,9 @@
       </c>
       <c r="J26" t="n">
         <v>5626.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5658.93</v>
       </c>
     </row>
     <row r="27">
@@ -1327,6 +1405,9 @@
       <c r="J27" t="n">
         <v>18242.59</v>
       </c>
+      <c r="K27" t="n">
+        <v>18216.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1361,6 +1442,9 @@
       <c r="J28" t="n">
         <v>7594.5</v>
       </c>
+      <c r="K28" t="n">
+        <v>7624.38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1394,6 +1478,9 @@
       </c>
       <c r="J29" t="n">
         <v>8949.84</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8909.690000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1417,6 +1504,7 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1451,6 +1539,9 @@
       <c r="J31" t="n">
         <v>389952.01</v>
       </c>
+      <c r="K31" t="n">
+        <v>390286.46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1485,6 +1576,9 @@
       <c r="J32" t="n">
         <v>75927.67</v>
       </c>
+      <c r="K32" t="n">
+        <v>75645.41</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1519,6 +1613,9 @@
       <c r="J33" t="n">
         <v>2734.48</v>
       </c>
+      <c r="K33" t="n">
+        <v>2736.13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1553,6 +1650,9 @@
       <c r="J34" t="n">
         <v>37449.91</v>
       </c>
+      <c r="K34" t="n">
+        <v>37347.06</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1586,6 +1686,9 @@
       </c>
       <c r="J35" t="n">
         <v>1123497.38</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1120411.81</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>50199.31</v>
       </c>
+      <c r="L2" t="n">
+        <v>50411.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>2389.05</v>
       </c>
+      <c r="L3" t="n">
+        <v>2394.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>6509.23</v>
       </c>
+      <c r="L4" t="n">
+        <v>6511</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>19020.13</v>
       </c>
+      <c r="L5" t="n">
+        <v>19212.03</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>8350.809999999999</v>
       </c>
+      <c r="L6" t="n">
+        <v>8595.83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -705,6 +725,9 @@
       </c>
       <c r="K7" t="n">
         <v>17309.89</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17246.51</v>
       </c>
     </row>
     <row r="8">
@@ -740,6 +763,9 @@
       </c>
       <c r="K8" t="n">
         <v>75467.72</v>
+      </c>
+      <c r="L8" t="n">
+        <v>75741.38</v>
       </c>
     </row>
     <row r="9">
@@ -760,6 +786,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -795,6 +822,9 @@
       <c r="K10" t="n">
         <v>22458.04</v>
       </c>
+      <c r="L10" t="n">
+        <v>22435.55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -830,6 +860,9 @@
       <c r="K11" t="n">
         <v>1498.75</v>
       </c>
+      <c r="L11" t="n">
+        <v>1499.31</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -865,6 +898,9 @@
       <c r="K12" t="n">
         <v>2001.01</v>
       </c>
+      <c r="L12" t="n">
+        <v>2001.61</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -900,6 +936,9 @@
       <c r="K13" t="n">
         <v>155867.45</v>
       </c>
+      <c r="L13" t="n">
+        <v>156169.96</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -935,6 +974,9 @@
       <c r="K14" t="n">
         <v>37869.47</v>
       </c>
+      <c r="L14" t="n">
+        <v>37660.69</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -970,6 +1012,9 @@
       <c r="K15" t="n">
         <v>38419.34</v>
       </c>
+      <c r="L15" t="n">
+        <v>34989.88</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1005,6 +1050,9 @@
       <c r="K16" t="n">
         <v>34339.72</v>
       </c>
+      <c r="L16" t="n">
+        <v>31381.83</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1040,6 +1088,9 @@
       <c r="K17" t="n">
         <v>44944.73</v>
       </c>
+      <c r="L17" t="n">
+        <v>44953.49</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1077,6 +1128,9 @@
       <c r="K18" t="n">
         <v>33098.67</v>
       </c>
+      <c r="L18" t="n">
+        <v>33337.84</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1114,6 +1168,9 @@
       <c r="K19" t="n">
         <v>30946.68</v>
       </c>
+      <c r="L19" t="n">
+        <v>30990.12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1151,6 +1208,9 @@
       <c r="K20" t="n">
         <v>2698.32</v>
       </c>
+      <c r="L20" t="n">
+        <v>2663.76</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1188,6 +1248,9 @@
       <c r="K21" t="n">
         <v>396.87</v>
       </c>
+      <c r="L21" t="n">
+        <v>404.47</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1225,6 +1288,9 @@
       <c r="K22" t="n">
         <v>1722.79</v>
       </c>
+      <c r="L22" t="n">
+        <v>781.61</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1262,6 +1328,9 @@
       <c r="K23" t="n">
         <v>19168.81</v>
       </c>
+      <c r="L23" t="n">
+        <v>18928.74</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1299,6 +1368,9 @@
       <c r="K24" t="n">
         <v>1441.28</v>
       </c>
+      <c r="L24" t="n">
+        <v>1441.28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1336,6 +1408,9 @@
       <c r="K25" t="n">
         <v>5216.69</v>
       </c>
+      <c r="L25" t="n">
+        <v>5177.12</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1372,6 +1447,9 @@
       </c>
       <c r="K26" t="n">
         <v>5658.93</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5661.26</v>
       </c>
     </row>
     <row r="27">
@@ -1408,6 +1486,9 @@
       <c r="K27" t="n">
         <v>18216.05</v>
       </c>
+      <c r="L27" t="n">
+        <v>18227.99</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1445,6 +1526,9 @@
       <c r="K28" t="n">
         <v>7624.38</v>
       </c>
+      <c r="L28" t="n">
+        <v>7522.77</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1481,6 +1565,9 @@
       </c>
       <c r="K29" t="n">
         <v>8909.690000000001</v>
+      </c>
+      <c r="L29" t="n">
+        <v>8870.02</v>
       </c>
     </row>
     <row r="30">
@@ -1505,6 +1592,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1542,6 +1630,9 @@
       <c r="K31" t="n">
         <v>390286.46</v>
       </c>
+      <c r="L31" t="n">
+        <v>389585.79</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1579,6 +1670,9 @@
       <c r="K32" t="n">
         <v>75645.41</v>
       </c>
+      <c r="L32" t="n">
+        <v>75564.46000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1616,6 +1710,9 @@
       <c r="K33" t="n">
         <v>2736.13</v>
       </c>
+      <c r="L33" t="n">
+        <v>2725.05</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1653,6 +1750,9 @@
       <c r="K34" t="n">
         <v>37347.06</v>
       </c>
+      <c r="L34" t="n">
+        <v>37102.92</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1689,6 +1789,9 @@
       </c>
       <c r="K35" t="n">
         <v>1120411.81</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1113087.47</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CVH.xlsx
+++ b/backend/src/excel_handler/files/CVH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>50411.95</v>
       </c>
+      <c r="M2" t="n">
+        <v>40604.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>2394.17</v>
       </c>
+      <c r="M3" t="n">
+        <v>2386.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>6511</v>
       </c>
+      <c r="M4" t="n">
+        <v>6548.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>19212.03</v>
       </c>
+      <c r="M5" t="n">
+        <v>18997</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>8595.83</v>
       </c>
+      <c r="M6" t="n">
+        <v>9107.99</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -728,6 +748,9 @@
       </c>
       <c r="L7" t="n">
         <v>17246.51</v>
+      </c>
+      <c r="M7" t="n">
+        <v>17133.25</v>
       </c>
     </row>
     <row r="8">
@@ -766,6 +789,9 @@
       </c>
       <c r="L8" t="n">
         <v>75741.38</v>
+      </c>
+      <c r="M8" t="n">
+        <v>75652.34</v>
       </c>
     </row>
     <row r="9">
@@ -787,6 +813,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -825,6 +852,9 @@
       <c r="L10" t="n">
         <v>22435.55</v>
       </c>
+      <c r="M10" t="n">
+        <v>22382.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -863,6 +893,9 @@
       <c r="L11" t="n">
         <v>1499.31</v>
       </c>
+      <c r="M11" t="n">
+        <v>1502.28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -901,6 +934,9 @@
       <c r="L12" t="n">
         <v>2001.61</v>
       </c>
+      <c r="M12" t="n">
+        <v>1998.32</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -939,6 +975,9 @@
       <c r="L13" t="n">
         <v>156169.96</v>
       </c>
+      <c r="M13" t="n">
+        <v>155960.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -977,6 +1016,9 @@
       <c r="L14" t="n">
         <v>37660.69</v>
       </c>
+      <c r="M14" t="n">
+        <v>37712.23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1015,6 +1057,9 @@
       <c r="L15" t="n">
         <v>34989.88</v>
       </c>
+      <c r="M15" t="n">
+        <v>32090.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1053,6 +1098,9 @@
       <c r="L16" t="n">
         <v>31381.83</v>
       </c>
+      <c r="M16" t="n">
+        <v>29623.93</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1091,6 +1139,9 @@
       <c r="L17" t="n">
         <v>44953.49</v>
       </c>
+      <c r="M17" t="n">
+        <v>43878.6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1131,6 +1182,9 @@
       <c r="L18" t="n">
         <v>33337.84</v>
       </c>
+      <c r="M18" t="n">
+        <v>33374.46</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1171,6 +1225,9 @@
       <c r="L19" t="n">
         <v>30990.12</v>
       </c>
+      <c r="M19" t="n">
+        <v>30986.35</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1211,6 +1268,9 @@
       <c r="L20" t="n">
         <v>2663.76</v>
       </c>
+      <c r="M20" t="n">
+        <v>2696.23</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1251,6 +1311,9 @@
       <c r="L21" t="n">
         <v>404.47</v>
       </c>
+      <c r="M21" t="n">
+        <v>404.22</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1291,6 +1354,9 @@
       <c r="L22" t="n">
         <v>781.61</v>
       </c>
+      <c r="M22" t="n">
+        <v>695.6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1331,6 +1397,9 @@
       <c r="L23" t="n">
         <v>18928.74</v>
       </c>
+      <c r="M23" t="n">
+        <v>19072.33</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1371,6 +1440,9 @@
       <c r="L24" t="n">
         <v>1441.28</v>
       </c>
+      <c r="M24" t="n">
+        <v>1445.93</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1411,6 +1483,9 @@
       <c r="L25" t="n">
         <v>5177.12</v>
       </c>
+      <c r="M25" t="n">
+        <v>3022.86</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1450,6 +1525,9 @@
       </c>
       <c r="L26" t="n">
         <v>5661.26</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5640.85</v>
       </c>
     </row>
     <row r="27">
@@ -1489,6 +1567,9 @@
       <c r="L27" t="n">
         <v>18227.99</v>
       </c>
+      <c r="M27" t="n">
+        <v>18177.85</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1529,6 +1610,9 @@
       <c r="L28" t="n">
         <v>7522.77</v>
       </c>
+      <c r="M28" t="n">
+        <v>7647.51</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1568,6 +1652,9 @@
       </c>
       <c r="L29" t="n">
         <v>8870.02</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8875.540000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1593,6 +1680,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1633,6 +1721,9 @@
       <c r="L31" t="n">
         <v>389585.79</v>
       </c>
+      <c r="M31" t="n">
+        <v>389900.25</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1673,6 +1764,9 @@
       <c r="L32" t="n">
         <v>75564.46000000001</v>
       </c>
+      <c r="M32" t="n">
+        <v>75497.16</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1713,6 +1807,9 @@
       <c r="L33" t="n">
         <v>2725.05</v>
       </c>
+      <c r="M33" t="n">
+        <v>2716.08</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1753,6 +1850,9 @@
       <c r="L34" t="n">
         <v>37102.92</v>
       </c>
+      <c r="M34" t="n">
+        <v>36524.41</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1792,6 +1892,9 @@
       </c>
       <c r="L35" t="n">
         <v>1113087.47</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1095732.16</v>
       </c>
     </row>
   </sheetData>
